--- a/ОсновыПр1920.xlsx
+++ b/ОсновыПр1920.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\Учеба1920\Основы программирования\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6407392C-70A7-41ED-BB69-96D5434C22A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
     <sheet name="Python 2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Новиков</author>
   </authors>
   <commentList>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{DECD707A-DF2C-4175-B24E-A9D876360916}">
+    <comment ref="J4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J15" authorId="0" shapeId="0" xr:uid="{75D36D59-2C32-4029-BA6D-E0170C5C7139}">
+    <comment ref="J15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J17" authorId="0" shapeId="0" xr:uid="{C812074B-AFCF-4EED-9DF6-8DB18FF2A1F9}">
+    <comment ref="J17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{045B939C-2396-4CFC-A1CD-95F334B424BC}">
+    <comment ref="E18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -130,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L21" authorId="0" shapeId="0" xr:uid="{E301EB1D-D9CD-471D-8408-3E764D47DA5A}">
+    <comment ref="L21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P24" authorId="0" shapeId="0" xr:uid="{EAF47707-E1D1-4ABA-A49C-4D6FCBB5ED66}">
+    <comment ref="P24" authorId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O27" authorId="0" shapeId="0" xr:uid="{31A8C47D-FBCC-40D0-B409-CF92012514DF}">
+    <comment ref="O27" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
   <si>
     <t>№</t>
   </si>
@@ -535,7 +529,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -988,14 +982,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3:D33"/>
     </sheetView>
   </sheetViews>
@@ -2631,16 +2625,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{A2FFC552-DB2F-49D9-BC2F-842C172281C4}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{5AA75152-0998-45A5-9690-7626622B164D}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{10834D44-25E5-4CA1-8131-31ACFF36163B}"/>
-    <hyperlink ref="C21" r:id="rId4" xr:uid="{AF832A90-8190-46A3-924F-A1627157919E}"/>
-    <hyperlink ref="C22" r:id="rId5" xr:uid="{47369B3D-D820-459F-A627-7083B14732E7}"/>
-    <hyperlink ref="C24" r:id="rId6" xr:uid="{7E3892D9-9861-42AB-AE03-28E24D1F4A02}"/>
-    <hyperlink ref="C29" r:id="rId7" xr:uid="{B300ED82-11CF-4BA7-805A-744823456FEA}"/>
-    <hyperlink ref="C32" r:id="rId8" xr:uid="{5AB3F676-4263-42B9-AE42-AD8B168FF7BB}"/>
-    <hyperlink ref="C27" r:id="rId9" xr:uid="{972A77A1-6465-43A6-8874-488219354E4D}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{75E76C60-B7C1-45BB-BAE5-0E8E06B2A9E7}"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="C8" r:id="rId3"/>
+    <hyperlink ref="C21" r:id="rId4"/>
+    <hyperlink ref="C22" r:id="rId5"/>
+    <hyperlink ref="C24" r:id="rId6"/>
+    <hyperlink ref="C29" r:id="rId7"/>
+    <hyperlink ref="C32" r:id="rId8"/>
+    <hyperlink ref="C27" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
@@ -2649,11 +2643,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9678E7A1-7763-450C-A0AE-B0E99296E6C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3073,7 +3067,9 @@
       <c r="C21" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E21" s="2">
         <v>2</v>
       </c>
@@ -3171,7 +3167,9 @@
       <c r="C26" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>74</v>
+      </c>
       <c r="E26" s="2">
         <v>2</v>
       </c>
@@ -3184,7 +3182,9 @@
       <c r="C27" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="E27" s="2">
         <v>2</v>
       </c>
@@ -3238,16 +3238,16 @@
     <sortCondition ref="A20:A22"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" xr:uid="{3381BC91-B99C-4138-BAC5-BDEEC6A6937A}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{53C92872-7344-4124-93E0-2BDABAE722B8}"/>
-    <hyperlink ref="B22" r:id="rId3" xr:uid="{20C9E056-CA46-43F8-91AA-46824F740C15}"/>
-    <hyperlink ref="B14" r:id="rId4" xr:uid="{7FD636CB-D4AF-4A5A-AAD3-62BC573DA395}"/>
-    <hyperlink ref="B26" r:id="rId5" xr:uid="{33FD133A-A079-4CFD-8082-F7277B3594C2}"/>
-    <hyperlink ref="B19" r:id="rId6" xr:uid="{22E1FF0A-A741-49B3-8BAD-3CC06A75F2EB}"/>
-    <hyperlink ref="B16" r:id="rId7" xr:uid="{2460FAA5-BD94-483B-8267-6CEED66DDFAB}"/>
-    <hyperlink ref="B8" r:id="rId8" xr:uid="{609D105E-7F3F-4584-B36C-0DF2F9AFD759}"/>
-    <hyperlink ref="B18" r:id="rId9" xr:uid="{51F949CD-206C-4C06-8829-0C08BD174D82}"/>
-    <hyperlink ref="B29" r:id="rId10" xr:uid="{D117B858-05D2-4033-86D1-5BC88FFBED8B}"/>
+    <hyperlink ref="B20" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B22" r:id="rId3"/>
+    <hyperlink ref="B14" r:id="rId4"/>
+    <hyperlink ref="B26" r:id="rId5"/>
+    <hyperlink ref="B19" r:id="rId6"/>
+    <hyperlink ref="B16" r:id="rId7"/>
+    <hyperlink ref="B8" r:id="rId8"/>
+    <hyperlink ref="B18" r:id="rId9"/>
+    <hyperlink ref="B29" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
